--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Re05c57fa1c894a7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R53d3f8aa2c3a43b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R53d3f8aa2c3a43b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R4acdb8164bf54973"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R4acdb8164bf54973"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R5d4c0cbe27744861"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R5d4c0cbe27744861"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rf1409bc6fd7444a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rf1409bc6fd7444a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R6dc297058efc49b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R6dc297058efc49b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R52e34cbceafa4662"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R52e34cbceafa4662"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R0f73b8adbe2e4c66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R0f73b8adbe2e4c66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1f5bad3fc3b2483c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1f5bad3fc3b2483c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R94d961be1cc347e4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R94d961be1cc347e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1de0661ec56d4ae6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1de0661ec56d4ae6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1d4d7b93dff4493f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,22 +30,22 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1d4d7b93dff4493f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rebe213fe88fe42a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,22 +30,22 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/072_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rebe213fe88fe42a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R9af88d9258b048e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
